--- a/resources/plot-csv-files/optimizations-50-matrices-double-precision-gp7.xlsx
+++ b/resources/plot-csv-files/optimizations-50-matrices-double-precision-gp7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cejkaluk\git\research-assignment-LU-decomposition\resources\plot-csv-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E134A-8857-47C9-8A9F-B49438B0BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AA721-1682-49AC-BFC0-4F26A93721BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -200,31 +200,34 @@
     <t>sm</t>
   </si>
   <si>
-    <t>parallel-row-005-diff</t>
-  </si>
-  <si>
     <t>sm-opt</t>
   </si>
   <si>
-    <t>parallel-row-0-diff</t>
-  </si>
-  <si>
     <t>parallel-section-size-gpucap-diff</t>
   </si>
   <si>
     <t>parallel-section-size-gpucap</t>
   </si>
   <si>
-    <t>convergence-row-005-tol</t>
-  </si>
-  <si>
-    <t>convergence-row-0-tol</t>
-  </si>
-  <si>
     <t>icm32</t>
   </si>
   <si>
     <t>icm32-diff</t>
+  </si>
+  <si>
+    <t>base-diff</t>
+  </si>
+  <si>
+    <t>computation-row-005-diff</t>
+  </si>
+  <si>
+    <t>computation-row-0-diff</t>
+  </si>
+  <si>
+    <t>computation-row-005-tol</t>
+  </si>
+  <si>
+    <t>computation-row-0-tol</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB636D-FE6B-437A-94AD-9719587C6509}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,13 +596,14 @@
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,34 +617,37 @@
         <v>53</v>
       </c>
       <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -668,11 +675,11 @@
       <c r="I2">
         <v>1.3860000000000001E-3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>4.0660500000000001E-5</v>
       </c>
-      <c r="K2">
-        <v>3.4924599999999997E-10</v>
+      <c r="K2" s="1">
+        <v>4.0660500000000001E-5</v>
       </c>
       <c r="L2">
         <v>3.4924599999999997E-10</v>
@@ -680,8 +687,11 @@
       <c r="M2">
         <v>3.4924599999999997E-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>3.4924599999999997E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -709,10 +719,10 @@
       <c r="I3">
         <v>2.2009999999999998E-3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>9.5367430000000002E-7</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>9.5367430000000002E-7</v>
       </c>
       <c r="L3">
@@ -721,8 +731,11 @@
       <c r="M3">
         <v>9.5367430000000002E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>9.5367430000000002E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -750,11 +763,11 @@
       <c r="I4">
         <v>1.18E-4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>8.8417560000000003E-6</v>
       </c>
-      <c r="K4">
-        <v>4.5474739999999997E-12</v>
+      <c r="K4" s="1">
+        <v>8.8417560000000003E-6</v>
       </c>
       <c r="L4">
         <v>4.5474739999999997E-12</v>
@@ -762,8 +775,11 @@
       <c r="M4">
         <v>4.5474739999999997E-12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>4.5474739999999997E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -791,10 +807,10 @@
       <c r="I5">
         <v>4.5890000000000002E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5">
@@ -803,8 +819,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -832,11 +851,11 @@
       <c r="I6">
         <v>9.4769999999999993E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>9.0684149999999998E-5</v>
       </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="K6" s="1">
+        <v>9.0684149999999998E-5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -844,8 +863,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -873,11 +895,11 @@
       <c r="I7">
         <v>6.8919999999999997E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>1.0614400000000001E-3</v>
       </c>
-      <c r="K7">
-        <v>1.0728839999999999E-6</v>
+      <c r="K7" s="1">
+        <v>1.0614400000000001E-3</v>
       </c>
       <c r="L7">
         <v>1.0728839999999999E-6</v>
@@ -885,8 +907,11 @@
       <c r="M7">
         <v>1.0728839999999999E-6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>1.0728839999999999E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -914,11 +939,11 @@
       <c r="I8">
         <v>1.088E-3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>4.0152459999999999E-10</v>
       </c>
-      <c r="K8">
-        <v>2.2204459999999999E-16</v>
+      <c r="K8" s="1">
+        <v>4.0152459999999999E-10</v>
       </c>
       <c r="L8">
         <v>2.2204459999999999E-16</v>
@@ -926,8 +951,11 @@
       <c r="M8">
         <v>2.2204459999999999E-16</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>2.2204459999999999E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -955,11 +983,11 @@
       <c r="I9">
         <v>1.0696000000000001E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>2.0985030000000002E-6</v>
       </c>
-      <c r="K9">
-        <v>4.6566130000000002E-10</v>
+      <c r="K9" s="1">
+        <v>2.0985030000000002E-6</v>
       </c>
       <c r="L9">
         <v>4.6566130000000002E-10</v>
@@ -967,8 +995,11 @@
       <c r="M9">
         <v>4.6566130000000002E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>4.6566130000000002E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -996,11 +1027,11 @@
       <c r="I10">
         <v>7.456E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>3.8667740000000001E-4</v>
       </c>
-      <c r="K10">
-        <v>9.3132260000000005E-10</v>
+      <c r="K10" s="1">
+        <v>3.8667740000000001E-4</v>
       </c>
       <c r="L10">
         <v>9.3132260000000005E-10</v>
@@ -1008,8 +1039,11 @@
       <c r="M10">
         <v>9.3132260000000005E-10</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>9.3132260000000005E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1037,11 +1071,11 @@
       <c r="I11">
         <v>9.9489999999999995E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>1.484557E-6</v>
       </c>
-      <c r="K11">
-        <v>1.63709E-9</v>
+      <c r="K11" s="1">
+        <v>1.484557E-6</v>
       </c>
       <c r="L11">
         <v>1.63709E-9</v>
@@ -1049,8 +1083,11 @@
       <c r="M11">
         <v>1.63709E-9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1.63709E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1078,11 +1115,11 @@
       <c r="I12">
         <v>4.1168999999999997E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>2.5175140000000002E-5</v>
       </c>
-      <c r="K12">
-        <v>1.332268E-15</v>
+      <c r="K12" s="1">
+        <v>2.5175140000000002E-5</v>
       </c>
       <c r="L12">
         <v>1.332268E-15</v>
@@ -1090,8 +1127,11 @@
       <c r="M12">
         <v>1.332268E-15</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>1.332268E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1119,11 +1159,11 @@
       <c r="I13">
         <v>1.1029000000000001E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>7.867813E-6</v>
       </c>
-      <c r="K13">
-        <v>8.4638599999999993E-6</v>
+      <c r="K13" s="1">
+        <v>7.867813E-6</v>
       </c>
       <c r="L13">
         <v>8.4638599999999993E-6</v>
@@ -1131,8 +1171,11 @@
       <c r="M13">
         <v>8.4638599999999993E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>8.4638599999999993E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1160,11 +1203,11 @@
       <c r="I14">
         <v>1.1023E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>7.867813E-6</v>
       </c>
-      <c r="K14">
-        <v>8.4638599999999993E-6</v>
+      <c r="K14" s="1">
+        <v>7.867813E-6</v>
       </c>
       <c r="L14">
         <v>8.4638599999999993E-6</v>
@@ -1172,8 +1215,11 @@
       <c r="M14">
         <v>8.4638599999999993E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>8.4638599999999993E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1201,20 +1247,23 @@
       <c r="I15">
         <v>8.8958999999999996E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1242,11 +1291,11 @@
       <c r="I16">
         <v>3.6639999999999999E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>1.753367E-4</v>
       </c>
-      <c r="K16">
-        <v>9.0949469999999998E-13</v>
+      <c r="K16" s="1">
+        <v>1.753367E-4</v>
       </c>
       <c r="L16">
         <v>9.0949469999999998E-13</v>
@@ -1254,8 +1303,11 @@
       <c r="M16">
         <v>9.0949469999999998E-13</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>9.0949469999999998E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1283,11 +1335,11 @@
       <c r="I17">
         <v>7.1831000000000006E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
+        <v>4.3550290000000001E-5</v>
+      </c>
+      <c r="K17" s="1">
         <v>2.3977740000000001E-3</v>
-      </c>
-      <c r="K17">
-        <v>1.136868E-13</v>
       </c>
       <c r="L17">
         <v>1.136868E-13</v>
@@ -1295,8 +1347,11 @@
       <c r="M17">
         <v>1.136868E-13</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>1.136868E-13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1324,11 +1379,11 @@
       <c r="I18">
         <v>0.13148899999999999</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
+        <v>8.2198299999999998E-4</v>
+      </c>
+      <c r="K18" s="1">
         <v>6.9123580000000004E-3</v>
-      </c>
-      <c r="K18">
-        <v>1.8189889999999999E-12</v>
       </c>
       <c r="L18">
         <v>1.8189889999999999E-12</v>
@@ -1336,8 +1391,11 @@
       <c r="M18">
         <v>1.8189889999999999E-12</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>1.8189889999999999E-12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1365,20 +1423,23 @@
       <c r="I19">
         <v>3.3473999999999997E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>1.6479489999999999E-3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
+        <v>1.6479489999999999E-3</v>
+      </c>
+      <c r="L19">
         <v>1.171875E-2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>29.78125</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1.6479489999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1406,11 +1467,11 @@
       <c r="I20">
         <v>2.7927E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>2.1095150000000001E-5</v>
       </c>
-      <c r="K20">
-        <v>3.7252900000000001E-9</v>
+      <c r="K20" s="1">
+        <v>2.1095150000000001E-5</v>
       </c>
       <c r="L20">
         <v>3.7252900000000001E-9</v>
@@ -1418,8 +1479,11 @@
       <c r="M20">
         <v>3.7252900000000001E-9</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>3.7252900000000001E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1447,11 +1511,11 @@
       <c r="I21">
         <v>2.4486000000000001E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>4.5697860000000002E-4</v>
       </c>
-      <c r="K21">
-        <v>7.4505810000000005E-9</v>
+      <c r="K21" s="1">
+        <v>4.5697860000000002E-4</v>
       </c>
       <c r="L21">
         <v>7.4505810000000005E-9</v>
@@ -1459,8 +1523,11 @@
       <c r="M21">
         <v>7.4505810000000005E-9</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>7.4505810000000005E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1488,11 +1555,11 @@
       <c r="I22">
         <v>0.36966100000000002</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>6.4519880000000004E-5</v>
       </c>
-      <c r="K22">
-        <v>3.7252900000000001E-9</v>
+      <c r="K22" s="1">
+        <v>6.4519880000000004E-5</v>
       </c>
       <c r="L22">
         <v>3.7252900000000001E-9</v>
@@ -1500,8 +1567,11 @@
       <c r="M22">
         <v>3.7252900000000001E-9</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>3.7252900000000001E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1529,11 +1599,11 @@
       <c r="I23">
         <v>0.43575999999999998</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
+        <v>5.59911E-5</v>
+      </c>
+      <c r="K23" s="1">
         <v>7.2060349999999995E-4</v>
-      </c>
-      <c r="K23">
-        <v>1.8189889999999999E-12</v>
       </c>
       <c r="L23">
         <v>1.8189889999999999E-12</v>
@@ -1541,8 +1611,11 @@
       <c r="M23">
         <v>1.8189889999999999E-12</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>1.8189889999999999E-12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1570,11 +1643,11 @@
       <c r="I24">
         <v>2.4878000000000001E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>3.8221140000000002E-5</v>
       </c>
-      <c r="K24">
-        <v>2.328306E-10</v>
+      <c r="K24" s="1">
+        <v>3.8221140000000002E-5</v>
       </c>
       <c r="L24">
         <v>2.328306E-10</v>
@@ -1582,8 +1655,11 @@
       <c r="M24">
         <v>2.328306E-10</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>2.328306E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1611,20 +1687,23 @@
       <c r="I25">
         <v>2.5312000000000001E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>1.3001040000000001E-4</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
+        <v>1.3001040000000001E-4</v>
+      </c>
+      <c r="L25">
         <v>1.8593130000000001E-11</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.241633E-5</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.8593130000000001E-11</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1652,20 +1731,23 @@
       <c r="I26">
         <v>3.7118999999999999E-2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>8.0908419999999994E-5</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
+        <v>8.0908419999999994E-5</v>
+      </c>
+      <c r="L26">
         <v>1.331791E-7</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3.5837289999999998E-6</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.331791E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1693,20 +1775,23 @@
       <c r="I27">
         <v>3.7076999999999999E-2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>8.0908419999999994E-5</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
+        <v>8.0908419999999994E-5</v>
+      </c>
+      <c r="L27">
         <v>1.331791E-7</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>3.5837289999999998E-6</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.331791E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1734,11 +1819,11 @@
       <c r="I28">
         <v>4.9121999999999999E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>2.8530139999999999E-5</v>
       </c>
-      <c r="K28">
-        <v>2.9802320000000001E-8</v>
+      <c r="K28" s="1">
+        <v>2.8530139999999999E-5</v>
       </c>
       <c r="L28">
         <v>2.9802320000000001E-8</v>
@@ -1746,8 +1831,11 @@
       <c r="M28">
         <v>2.9802320000000001E-8</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>2.9802320000000001E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1775,20 +1863,23 @@
       <c r="I29">
         <v>5.2212000000000001E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>2.384186E-6</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.144409E-5</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.384186E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1816,11 +1907,11 @@
       <c r="I30">
         <v>5.2212000000000001E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>3.8782600000000004E-6</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" s="1">
+        <v>3.8782600000000004E-6</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1828,8 +1919,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1857,10 +1951,10 @@
       <c r="I31">
         <v>7.2665999999999994E-2</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
         <v>7.6293949999999998E-6</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>7.6293949999999998E-6</v>
       </c>
       <c r="L31">
@@ -1869,8 +1963,11 @@
       <c r="M31">
         <v>7.6293949999999998E-6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>7.6293949999999998E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1898,11 +1995,11 @@
       <c r="I32">
         <v>1.2671829999999999</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
+        <v>4.8450359999999997E-5</v>
+      </c>
+      <c r="K32" s="1">
         <v>1.4394559999999999E-4</v>
-      </c>
-      <c r="K32">
-        <v>2.831069E-14</v>
       </c>
       <c r="L32">
         <v>2.831069E-14</v>
@@ -1910,8 +2007,11 @@
       <c r="M32">
         <v>2.831069E-14</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>2.831069E-14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1939,11 +2039,11 @@
       <c r="I33">
         <v>4.4181559999999998</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
+        <v>1.823266E-5</v>
+      </c>
+      <c r="K33" s="1">
         <v>2.8137739999999998E-3</v>
-      </c>
-      <c r="K33">
-        <v>8.5265130000000005E-14</v>
       </c>
       <c r="L33">
         <v>8.5265130000000005E-14</v>
@@ -1951,8 +2051,11 @@
       <c r="M33">
         <v>8.5265130000000005E-14</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>8.5265130000000005E-14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1980,10 +2083,10 @@
       <c r="I34">
         <v>8.7430999999999995E-2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>1.136868E-13</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>1.136868E-13</v>
       </c>
       <c r="L34">
@@ -1992,8 +2095,11 @@
       <c r="M34">
         <v>1.136868E-13</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>1.136868E-13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2021,11 +2127,11 @@
       <c r="I35">
         <v>3.2790970000000002</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
+        <v>4.0741750000000002E-3</v>
+      </c>
+      <c r="K35" s="1">
         <v>6.6743940000000002E-3</v>
-      </c>
-      <c r="K35">
-        <v>5.3290710000000002E-15</v>
       </c>
       <c r="L35">
         <v>5.3290710000000002E-15</v>
@@ -2033,8 +2139,11 @@
       <c r="M35">
         <v>5.3290710000000002E-15</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>5.3290710000000002E-15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2062,11 +2171,11 @@
       <c r="I36">
         <v>3.202728</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
+        <v>1.9968710000000001E-2</v>
+      </c>
+      <c r="K36" s="1">
         <v>7.7149770000000006E-2</v>
-      </c>
-      <c r="K36">
-        <v>8.8817839999999996E-16</v>
       </c>
       <c r="L36">
         <v>8.8817839999999996E-16</v>
@@ -2074,8 +2183,11 @@
       <c r="M36">
         <v>8.8817839999999996E-16</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>8.8817839999999996E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2103,20 +2215,23 @@
       <c r="I37">
         <v>0.167215</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>0.75</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>0.75</v>
       </c>
       <c r="L37">
+        <v>0.75</v>
+      </c>
+      <c r="M37">
         <v>2</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2144,11 +2259,11 @@
       <c r="I38">
         <v>1.7087540000000001</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
+        <v>1.013996E-4</v>
+      </c>
+      <c r="K38" s="1">
         <v>2.8074859999999998E-4</v>
-      </c>
-      <c r="K38">
-        <v>5.5511149999999998E-17</v>
       </c>
       <c r="L38">
         <v>5.5511149999999998E-17</v>
@@ -2156,8 +2271,11 @@
       <c r="M38">
         <v>5.5511149999999998E-17</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>5.5511149999999998E-17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2185,11 +2303,11 @@
       <c r="I39">
         <v>1.7233750000000001</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
+        <v>2.0497390000000001E-4</v>
+      </c>
+      <c r="K39" s="1">
         <v>2.8526369999999998E-4</v>
-      </c>
-      <c r="K39">
-        <v>2.7755580000000001E-17</v>
       </c>
       <c r="L39">
         <v>2.7755580000000001E-17</v>
@@ -2197,8 +2315,11 @@
       <c r="M39">
         <v>2.7755580000000001E-17</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>2.7755580000000001E-17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2226,11 +2347,11 @@
       <c r="I40">
         <v>4.3012180000000004</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
+        <v>2.4550779999999999E-7</v>
+      </c>
+      <c r="K40" s="1">
         <v>2.6826949999999999E-2</v>
-      </c>
-      <c r="K40">
-        <v>4.4408919999999998E-16</v>
       </c>
       <c r="L40">
         <v>4.4408919999999998E-16</v>
@@ -2238,8 +2359,11 @@
       <c r="M40">
         <v>4.4408919999999998E-16</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>4.4408919999999998E-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2267,20 +2391,23 @@
       <c r="I41">
         <v>3.8963860000000001</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
+        <v>7.2261989999999995E-7</v>
+      </c>
+      <c r="K41" s="1">
         <v>4.2433290000000001E-4</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>2.2204459999999999E-16</v>
-      </c>
-      <c r="L41">
-        <v>4.4408919999999998E-16</v>
       </c>
       <c r="M41">
         <v>4.4408919999999998E-16</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>4.4408919999999998E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2308,20 +2435,23 @@
       <c r="I42">
         <v>2.200177</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42">
         <v>0.22460939999999999</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>0.22460939999999999</v>
       </c>
       <c r="L42">
+        <v>0.22460939999999999</v>
+      </c>
+      <c r="M42">
         <v>0.47216799999999998</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.22460939999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2349,11 +2479,11 @@
       <c r="I43">
         <v>0.24129900000000001</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43">
         <v>4.3025940000000004E-6</v>
       </c>
-      <c r="K43">
-        <v>1.490116E-8</v>
+      <c r="K43" s="1">
+        <v>4.3025940000000004E-6</v>
       </c>
       <c r="L43">
         <v>1.490116E-8</v>
@@ -2361,8 +2491,11 @@
       <c r="M43">
         <v>1.490116E-8</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>1.490116E-8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2390,11 +2523,11 @@
       <c r="I44">
         <v>0.29320200000000002</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44">
         <v>5.690035</v>
       </c>
-      <c r="K44">
-        <v>2.3841859999999999E-7</v>
+      <c r="K44" s="1">
+        <v>5.690035</v>
       </c>
       <c r="L44">
         <v>2.3841859999999999E-7</v>
@@ -2402,8 +2535,11 @@
       <c r="M44">
         <v>2.3841859999999999E-7</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>2.3841859999999999E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2431,20 +2567,23 @@
       <c r="I45">
         <v>0.41660999999999998</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>2.1695890000000001E-7</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
+        <v>2.1695890000000001E-7</v>
+      </c>
+      <c r="L45">
         <v>8.440111E-10</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1.3969839999999999E-9</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>8.440111E-10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2472,20 +2611,23 @@
       <c r="I46">
         <v>0.53314499999999998</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>2.5148800000000002E-4</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
+        <v>2.5148800000000002E-4</v>
+      </c>
+      <c r="L46">
         <v>2.575717E-14</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.76600440000000003</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2.575717E-14</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2513,11 +2655,11 @@
       <c r="I47">
         <v>0.52943099999999998</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>1.6719569999999999E-6</v>
       </c>
-      <c r="K47">
-        <v>1.490116E-8</v>
+      <c r="K47" s="1">
+        <v>1.6719569999999999E-6</v>
       </c>
       <c r="L47">
         <v>1.490116E-8</v>
@@ -2525,8 +2667,11 @@
       <c r="M47">
         <v>1.490116E-8</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>1.490116E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2554,11 +2699,11 @@
       <c r="I48">
         <v>11.035310000000001</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
+        <v>7.2828659999999993E-5</v>
+      </c>
+      <c r="K48" s="1">
         <v>7.9758299999999998E-5</v>
-      </c>
-      <c r="K48">
-        <v>3.3306690000000002E-16</v>
       </c>
       <c r="L48">
         <v>3.3306690000000002E-16</v>
@@ -2566,8 +2711,11 @@
       <c r="M48">
         <v>3.3306690000000002E-16</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>3.3306690000000002E-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2595,20 +2743,23 @@
       <c r="I49">
         <v>0.78762200000000004</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49">
         <v>2.9702560000000001E-3</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
+        <v>2.9702560000000001E-3</v>
+      </c>
+      <c r="L49">
         <v>1.4551920000000001E-11</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>2.9103829999999999E-11</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>1.4551920000000001E-11</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2636,20 +2787,23 @@
       <c r="I50">
         <v>0.78293000000000001</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50">
         <v>1.5811579999999999E-6</v>
       </c>
-      <c r="K50">
-        <v>3.6379789999999996E-12</v>
+      <c r="K50" s="1">
+        <v>1.5811579999999999E-6</v>
       </c>
       <c r="L50">
         <v>3.6379789999999996E-12</v>
       </c>
       <c r="M50">
+        <v>3.6379789999999996E-12</v>
+      </c>
+      <c r="N50">
         <v>1.8189889999999999E-12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2677,36 +2831,39 @@
       <c r="I51">
         <v>1.320624</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51">
+        <v>1.4047650000000001E-4</v>
+      </c>
+      <c r="K51" s="1">
         <v>5.2833619999999998E-4</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>1.7763570000000001E-15</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1.4978239999999999E-10</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>1.7763570000000001E-15</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J55" s="1"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J56" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J57" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/plot-csv-files/optimizations-50-matrices-double-precision-gp7.xlsx
+++ b/resources/plot-csv-files/optimizations-50-matrices-double-precision-gp7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cejkaluk\git\research-assignment-LU-decomposition\resources\plot-csv-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AA721-1682-49AC-BFC0-4F26A93721BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09215FBE-4A61-49AF-A336-48CC0D483293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EB188C0A-FAF6-472A-8029-F7F1C455370D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,16 +218,16 @@
     <t>base-diff</t>
   </si>
   <si>
-    <t>computation-row-005-diff</t>
-  </si>
-  <si>
-    <t>computation-row-0-diff</t>
-  </si>
-  <si>
-    <t>computation-row-005-tol</t>
-  </si>
-  <si>
-    <t>computation-row-0-tol</t>
+    <t>processing-row-005-tol</t>
+  </si>
+  <si>
+    <t>processing-row-0-tol</t>
+  </si>
+  <si>
+    <t>processing-row-005-diff</t>
+  </si>
+  <si>
+    <t>processing-row-0-diff</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +620,10 @@
         <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -635,10 +635,10 @@
         <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
         <v>55</v>
